--- a/appendix/mean_4ds_recall_macro_rest.xlsx
+++ b/appendix/mean_4ds_recall_macro_rest.xlsx
@@ -525,7 +525,7 @@
         <v>0.356</v>
       </c>
       <c r="G3" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="H3" t="n">
         <v>0.402</v>

--- a/appendix/mean_4ds_recall_macro_rest.xlsx
+++ b/appendix/mean_4ds_recall_macro_rest.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168</v>
+        <v>0.18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.308</v>
+        <v>0.327</v>
       </c>
       <c r="E5" t="n">
-        <v>0.37</v>
+        <v>0.383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.395</v>
+        <v>0.411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.46</v>
       </c>
       <c r="H5" t="n">
-        <v>0.449</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6">
@@ -618,20 +618,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.168</v>
+        <v>0.18</v>
       </c>
       <c r="D7" t="n">
-        <v>0.308</v>
+        <v>0.327</v>
       </c>
       <c r="E7" t="n">
-        <v>0.37</v>
+        <v>0.383</v>
       </c>
       <c r="F7" t="n">
         <v>0.44</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166</v>
+        <v>0.169</v>
       </c>
       <c r="D8" t="n">
-        <v>0.409</v>
+        <v>0.426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.491</v>
+        <v>0.47</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="G8" t="n">
-        <v>0.598</v>
+        <v>0.591</v>
       </c>
       <c r="H8" t="n">
-        <v>0.605</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.373</v>
+        <v>0.382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.426</v>
+        <v>0.472</v>
       </c>
       <c r="D9" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.582</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.637</v>
+        <v>0.63</v>
       </c>
       <c r="H9" t="n">
-        <v>0.65</v>
+        <v>0.639</v>
       </c>
     </row>
   </sheetData>
